--- a/Proyecto/Comparativa_3_Algoritmos.xlsx
+++ b/Proyecto/Comparativa_3_Algoritmos.xlsx
@@ -460,13 +460,13 @@
         <v>20000</v>
       </c>
       <c r="B2" t="n">
-        <v>468.705078125</v>
+        <v>466.817262172699</v>
       </c>
       <c r="C2" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>40000</v>
       </c>
       <c r="B3" t="n">
-        <v>1725.266087770462</v>
+        <v>1721.849794149399</v>
       </c>
       <c r="C3" t="n">
         <v>459</v>
       </c>
       <c r="D3" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>60000</v>
       </c>
       <c r="B4" t="n">
-        <v>3622.980395317078</v>
+        <v>3605.902589321136</v>
       </c>
       <c r="C4" t="n">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D4" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>80000</v>
       </c>
       <c r="B5" t="n">
-        <v>6607.154327869415</v>
+        <v>6588.803039073944</v>
       </c>
       <c r="C5" t="n">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="D5" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +516,10 @@
         <v>100000</v>
       </c>
       <c r="B6" t="n">
-        <v>10216.22223472595</v>
+        <v>10208.74227309227</v>
       </c>
       <c r="C6" t="n">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="D6" t="n">
         <v>185</v>
